--- a/Assets/PSW/Excel/StageMap.xlsx
+++ b/Assets/PSW/Excel/StageMap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>StageIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,31 +29,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BlockIndexList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BlockContainerLength</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MonsterSpawnPosXList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterSpawnPosYList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterIDList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StageXSize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StageYSize</t>
+    <t>MonsterSpawnPosList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSpawnPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterNameList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockNameList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,50 +375,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="20.75" customWidth="1"/>
-    <col min="8" max="8" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="20.75" customWidth="1"/>
+    <col min="7" max="8" width="23.375" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/PSW/Excel/StageMap.xlsx
+++ b/Assets/PSW/Excel/StageMap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>StageIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,37 @@
   </si>
   <si>
     <t>BlockNameList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{6,6}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+0,0,0,0,0,0,
+0,1,0,0,0,0,
+0,1,0,0,0,0,
+0,1,1,1,1,0,
+0,0,0,0,1,0,
+0,0,0,0,0,0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{4,4}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1,1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,8 +124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -375,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -418,6 +452,32 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/PSW/Excel/StageMap.xlsx
+++ b/Assets/PSW/Excel/StageMap.xlsx
@@ -80,7 +80,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{</t>
+    <t>{UIUpMoveBlock,UIDownMoveBlock,UILeftMoveBlock,UIRightMoveBlock,UIWaterAttackBlock,UIGrassAttackBlock,UIFireAttackBlock}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/Assets/PSW/Excel/StageMap.xlsx
+++ b/Assets/PSW/Excel/StageMap.xlsx
@@ -57,21 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-0,0,0,0,0,0,
-0,1,0,0,0,0,
-0,1,0,0,0,0,
-0,1,1,1,1,0,
-0,0,0,0,1,0,
-0,0,0,0,0,0
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{4,4}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,6 +66,14 @@
   </si>
   <si>
     <t>{UIUpMoveBlock,UIDownMoveBlock,UILeftMoveBlock,UIRightMoveBlock,UIWaterAttackBlock,UIGrassAttackBlock,UIFireAttackBlock}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,1,0,0,0,0,0,1,0,0,0,0,0,1,1,1,1,0,0,0,0,0,1,0,0,0,0,0,0,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{BlueMonster}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +405,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,7 +445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -460,22 +453,22 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/PSW/Excel/StageMap.xlsx
+++ b/Assets/PSW/Excel/StageMap.xlsx
@@ -53,18 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{6,6}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{4,4}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1,1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{UIUpMoveBlock,UIDownMoveBlock,UILeftMoveBlock,UIRightMoveBlock,UIWaterAttackBlock,UIGrassAttackBlock,UIFireAttackBlock}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,6 +62,18 @@
   </si>
   <si>
     <t>{BlueMonster}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6/6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1/1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(4/4)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/PSW/Excel/StageMap.xlsx
+++ b/Assets/PSW/Excel/StageMap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>StageIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,10 @@
   </si>
   <si>
     <t>{(4/4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bushmonsternamelist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -414,12 +418,13 @@
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="20.75" customWidth="1"/>
+    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="23.375" customWidth="1"/>
+    <col min="9" max="9" width="24.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,8 +449,11 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>

--- a/Assets/PSW/Excel/StageMap.xlsx
+++ b/Assets/PSW/Excel/StageMap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>StageIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>{(4/4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Bush}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BushMonsterNameList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(BlueMonster/RedMonster)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -415,11 +427,13 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="5" width="21.5" customWidth="1"/>
     <col min="6" max="6" width="20.75" customWidth="1"/>
-    <col min="7" max="8" width="23.375" customWidth="1"/>
+    <col min="7" max="7" width="23.375" customWidth="1"/>
+    <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.375" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,10 +456,13 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -467,7 +484,36 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Assets/PSW/Excel/StageMap.xlsx
+++ b/Assets/PSW/Excel/StageMap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>StageIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{BlueMonster}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(6/6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,15 +73,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{Bush}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BushMonsterNameList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(BlueMonster/RedMonster)}</t>
+    <t>{Char_Giant_ Battle_Character_Fire_01}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Char_Enemy_Unknown_01}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Char_Common_ Battle_Character_Water_01}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(Char_Common_ Battle_Character_Water_01/Char_Common_ Battle_Character_Fire_01)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -456,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -467,7 +471,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -479,13 +483,13 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="66" x14ac:dyDescent="0.3">
@@ -493,7 +497,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -505,16 +509,42 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G4" t="s">
         <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/PSW/Excel/StageMap.xlsx
+++ b/Assets/PSW/Excel/StageMap.xlsx
@@ -19,85 +19,322 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
   <si>
     <t>StageIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageSize</t>
   </si>
   <si>
     <t>ArrayInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockIDList</t>
   </si>
   <si>
     <t>BlockContainerLength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterIDList</t>
   </si>
   <si>
     <t>MonsterSpawnPosList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BushMonsterIDList</t>
   </si>
   <si>
     <t>PlayerSpawnPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StageSize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterNameList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlockNameList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{UIUpMoveBlock,UIDownMoveBlock,UILeftMoveBlock,UIRightMoveBlock,UIWaterAttackBlock,UIGrassAttackBlock,UIFireAttackBlock}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0,0,0,0,0,0,0,1,0,0,0,0,0,1,0,0,0,0,0,1,1,1,1,0,0,0,0,0,1,0,0,0,0,0,0,0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChapterThemeID</t>
+  </si>
+  <si>
+    <t>(9/9)</t>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+  </si>
+  <si>
+    <t>{001,002,003,004,005}</t>
+  </si>
+  <si>
+    <t>{133001}</t>
+  </si>
+  <si>
+    <t>{(5/6)}</t>
+  </si>
+  <si>
+    <t>(5/4)</t>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,0,0,0,0,2,1,1,1,1,2,0,0,0,2,1,2,2,2,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+  </si>
+  <si>
+    <t>{001,002,003,004,007}</t>
+  </si>
+  <si>
+    <t>{123001}</t>
+  </si>
+  <si>
+    <t>{(4/7)}</t>
+  </si>
+  <si>
+    <t>(7/4)</t>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+  </si>
+  <si>
+    <t>{001,002,003,004,006}</t>
+  </si>
+  <si>
+    <t>{113001}</t>
+  </si>
+  <si>
+    <t>{(4/6)}</t>
   </si>
   <si>
     <t>(6/6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1/1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(4/4)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BushMonsterNameList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Char_Giant_ Battle_Character_Fire_01}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Char_Enemy_Unknown_01}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Char_Common_ Battle_Character_Water_01}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(Char_Common_ Battle_Character_Water_01/Char_Common_ Battle_Character_Fire_01)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,0,2,2,0,0,0,2,1,1,2,1,1,2,0,0,0,2,1,2,1,2,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+  </si>
+  <si>
+    <t>{001,002,003,004,006,007}</t>
+  </si>
+  <si>
+    <t>{123001, 133001}</t>
+  </si>
+  <si>
+    <t>{(6/5),(4/3)}</t>
+  </si>
+  <si>
+    <t>(4/7)</t>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,0,0,0,0,0,0,2,1,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,1,2,0,0,0,0,0,2,0,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+  </si>
+  <si>
+    <t>{001,002,003,004,005,006,007}</t>
+  </si>
+  <si>
+    <t>{123001, 133001, 112001}</t>
+  </si>
+  <si>
+    <t>{(4/4),(5/5),(6/6)}</t>
+  </si>
+  <si>
+    <t>(6/4)</t>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,2,2,2,0,2,1,1,1,1,1,1,1,2,0,2,2,2,2,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+  </si>
+  <si>
+    <t>{001,002,003,004,005,100}</t>
+  </si>
+  <si>
+    <t>{(5/8)}</t>
+  </si>
+  <si>
+    <t>(5/2)</t>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,2,2,1,2,2,0,0,0,2,1,1,1,2,0,0,0,2,2,1,2,2,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+  </si>
+  <si>
+    <t>{001,002,003,004,005,006,100}</t>
+  </si>
+  <si>
+    <t>{133001, 133001, 113001}</t>
+  </si>
+  <si>
+    <t>{(5/6),(7/4),(7/2)}</t>
+  </si>
+  <si>
+    <t>(3/8)</t>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0,2,1,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,1,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,1,2,0,0,0,0,0,2,1,1,2,00,0,0,0,0,2,2,0,0}</t>
+  </si>
+  <si>
+    <t>{001,002,003,004,006,007,100}</t>
+  </si>
+  <si>
+    <t>{113001, 113001, 125001}</t>
+  </si>
+  <si>
+    <t>{(5/5),(7/7),(8/6)}</t>
+  </si>
+  <si>
+    <t>(3/3)</t>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,0,0,0,0,2,0,0,2,1,2,0,0,2,1,2,0,2,1,2,0,0,2,1,1,2,2,1,2,0,0,0,2,1,1,2,1,2,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0}</t>
+  </si>
+  <si>
+    <t>{115001, 115001, 115001, 125001, 125001}</t>
+  </si>
+  <si>
+    <t>{(5/4),(6/5),(7/6),(5/7),(3/7)}</t>
+  </si>
+  <si>
+    <t>(4/3)</t>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,0,0,0,0,2,1,1,1,1,2,0,0,2,2,1,2,2,1,2,0,0,2,1,1,2,1,1,2,0,2,1,1,2,0,2,2,0,0,2,1,2,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+  </si>
+  <si>
+    <t>{125001, 125001, 115001, 115001, 122001}</t>
+  </si>
+  <si>
+    <t>{(6/3),(5/4),(4/5),(3/5),(5/7)}</t>
+  </si>
+  <si>
+    <t>(7/3)</t>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,0,0,0,0,2,1,1,1,1,2,0,0,0,0,2,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+  </si>
+  <si>
+    <t>{001,002,003,004,005,006,007,101}</t>
+  </si>
+  <si>
+    <t>{104002}</t>
+  </si>
+  <si>
+    <t>{(5/7)}</t>
+  </si>
+  <si>
+    <t>{(113001/133001)}</t>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,0,0,0,0,2,1,1,1,1,2,0,0,0,0,2,2,2,1,2,0,0,0,0,0,0,2,1,2,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+  </si>
+  <si>
+    <t>{104001, 104003}</t>
+  </si>
+  <si>
+    <t>{(4/6),(6/6)}</t>
+  </si>
+  <si>
+    <t>{(113001/122001),(123001,133001)}</t>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,0,0,0,0,0,0,2,1,1,2,0,0,0,0,2,2,1,2,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+  </si>
+  <si>
+    <t>{104002, 104001, 104003}</t>
+  </si>
+  <si>
+    <t>{(4/6),(6/6),(6/4)}</t>
+  </si>
+  <si>
+    <t>{(113001/113001),(113001/123001),(123001/133001)}</t>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,2,0,0,0,2,1,1,1,1,1,2,0,0,2,1,2,2,2,1,2,0,0,2,1,1,1,1,1,2,0,0,0,2,2,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+  </si>
+  <si>
+    <t>{104002, 104003, 104001}</t>
+  </si>
+  <si>
+    <t>{(6/4),(6/7),(4/7)}</t>
+  </si>
+  <si>
+    <t>{(113001/113001),(123001/133001),(113001/123001)}</t>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,2,2,2,0,0,2,1,1,1,1,2,2,0,0,2,1,2,2,1,1,2,0,0,2,1,2,1,2,1,2,0,0,2,1,1,1,2,2,2,0,0,2,2,2,2,2,2,2,0,0,0,0,0,0,0,0,0,0}</t>
+  </si>
+  <si>
+    <t>{104002, 104003, 104001, 104003}</t>
+  </si>
+  <si>
+    <t>{(6/3),(4/4),(5/6),(6/7)}</t>
+  </si>
+  <si>
+    <t>{(113001/113001),(123001/133001),(113001/123001),(123001,132001)}</t>
+  </si>
+  <si>
+    <t>(6/5)</t>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,2,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+  </si>
+  <si>
+    <t>{001,002,003,004,005,006,007,100,101}</t>
+  </si>
+  <si>
+    <t>{104003}</t>
+  </si>
+  <si>
+    <t>{(3/6)}</t>
+  </si>
+  <si>
+    <t>{(123001/133001)}</t>
+  </si>
+  <si>
+    <t>(7/6)</t>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,2,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>{104003, 115001}</t>
+  </si>
+  <si>
+    <t>{(3/4),(3/6)}</t>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,2,2,1,2,2,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,2,2,0,0,0,0,2,1,1,1,1,2,0,0,0,0,2,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>{123001, 123001, 104001}</t>
+  </si>
+  <si>
+    <t>{(5/5),(7/3),(7/6)}</t>
+  </si>
+  <si>
+    <t>{(113001/123001)}</t>
+  </si>
+  <si>
+    <t>(3/7)</t>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,2,2,0,0,0,0,0,0,2,1,1,2,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,0,0,0,2,2,2,2,1,2,0,0,2,1,1,1,1,1,2,0,0,0,2,2,2,2,2,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>{135001, 135001, 104001}</t>
+  </si>
+  <si>
+    <t>{(7/7),(7/5),(7/3)}</t>
+  </si>
+  <si>
+    <t>(2/8)</t>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,1,2,0,0,0,2,1,1,2,1,2,0,0,2,1,1,2,1,1,2,0,2,1,1,2,1,1,2,0,2,1,1,2,0,2,2,0,0,2,1,2,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>{123001, 113001, 123001, 113001, 135001, 135001, 104003, 104002, 104001}</t>
+  </si>
+  <si>
+    <t>{(7/2),(6/3),(5/4),(4/5),(3/6),(2/6),(5/8),(5/7),(6/6)}</t>
+  </si>
+  <si>
+    <t>{(123001/133001),(113001/113001),(113001/123001)}</t>
+  </si>
+  <si>
+    <t>(8/2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,16 +349,35 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -129,14 +385,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,13 +752,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
@@ -437,114 +771,656 @@
     <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="149.25" thickBot="1">
+      <c r="A2" s="4">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="149.25" thickBot="1">
+      <c r="A3" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="149.25" thickBot="1">
+      <c r="A4" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="149.25" thickBot="1">
+      <c r="A5" s="4">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="149.25" thickBot="1">
+      <c r="A6" s="4">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="149.25" thickBot="1">
+      <c r="A7" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="6">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="149.25" thickBot="1">
+      <c r="A8" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="149.25" thickBot="1">
+      <c r="A9" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="149.25" thickBot="1">
+      <c r="A10" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="149.25" thickBot="1">
+      <c r="A11" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="6">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="149.25" thickBot="1">
+      <c r="A12" s="4">
+        <v>3001</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="149.25" thickBot="1">
+      <c r="A13" s="4">
+        <v>3002</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="6">
+        <v>7</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="149.25" thickBot="1">
+      <c r="A14" s="4">
+        <v>3003</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="6">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="149.25" thickBot="1">
+      <c r="A15" s="4">
+        <v>3004</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="6">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="149.25" thickBot="1">
+      <c r="A16" s="4">
+        <v>3005</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="6">
+        <v>16</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="149.25" thickBot="1">
+      <c r="A17" s="4">
+        <v>4001</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="F17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="149.25" thickBot="1">
+      <c r="A18" s="4">
+        <v>4002</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="6">
+        <v>7</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="149.25" thickBot="1">
+      <c r="A19" s="4">
+        <v>4003</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="149.25" thickBot="1">
+      <c r="A20" s="4">
+        <v>4004</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="149.25" thickBot="1">
+      <c r="A21" s="4">
+        <v>4005</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
+      <c r="F21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="6">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/PSW/Excel/StageMap.xlsx
+++ b/Assets/PSW/Excel/StageMap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
   <si>
     <t>StageIndex</t>
   </si>
@@ -63,12 +63,6 @@
     <t>{133001}</t>
   </si>
   <si>
-    <t>{(5/6)}</t>
-  </si>
-  <si>
-    <t>(5/4)</t>
-  </si>
-  <si>
     <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,0,0,0,0,2,1,1,1,1,2,0,0,0,2,1,2,2,2,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
   </si>
   <si>
@@ -78,12 +72,6 @@
     <t>{123001}</t>
   </si>
   <si>
-    <t>{(4/7)}</t>
-  </si>
-  <si>
-    <t>(7/4)</t>
-  </si>
-  <si>
     <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
   </si>
   <si>
@@ -93,12 +81,6 @@
     <t>{113001}</t>
   </si>
   <si>
-    <t>{(4/6)}</t>
-  </si>
-  <si>
-    <t>(6/6)</t>
-  </si>
-  <si>
     <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,0,2,2,0,0,0,2,1,1,2,1,1,2,0,0,0,2,1,2,1,2,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
   </si>
   <si>
@@ -108,12 +90,6 @@
     <t>{123001, 133001}</t>
   </si>
   <si>
-    <t>{(6/5),(4/3)}</t>
-  </si>
-  <si>
-    <t>(4/7)</t>
-  </si>
-  <si>
     <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,0,0,0,0,0,0,2,1,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,1,2,0,0,0,0,0,2,0,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
   </si>
   <si>
@@ -123,24 +99,12 @@
     <t>{123001, 133001, 112001}</t>
   </si>
   <si>
-    <t>{(4/4),(5/5),(6/6)}</t>
-  </si>
-  <si>
-    <t>(6/4)</t>
-  </si>
-  <si>
     <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,2,2,2,0,2,1,1,1,1,1,1,1,2,0,2,2,2,2,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
   </si>
   <si>
     <t>{001,002,003,004,005,100}</t>
   </si>
   <si>
-    <t>{(5/8)}</t>
-  </si>
-  <si>
-    <t>(5/2)</t>
-  </si>
-  <si>
     <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,2,2,1,2,2,0,0,0,2,1,1,1,2,0,0,0,2,2,1,2,2,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
   </si>
   <si>
@@ -150,12 +114,6 @@
     <t>{133001, 133001, 113001}</t>
   </si>
   <si>
-    <t>{(5/6),(7/4),(7/2)}</t>
-  </si>
-  <si>
-    <t>(3/8)</t>
-  </si>
-  <si>
     <t>{0,0,0,0,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0,2,1,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,1,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,1,2,0,0,0,0,0,2,1,1,2,00,0,0,0,0,2,2,0,0}</t>
   </si>
   <si>
@@ -165,36 +123,18 @@
     <t>{113001, 113001, 125001}</t>
   </si>
   <si>
-    <t>{(5/5),(7/7),(8/6)}</t>
-  </si>
-  <si>
-    <t>(3/3)</t>
-  </si>
-  <si>
     <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,0,0,0,0,2,0,0,2,1,2,0,0,2,1,2,0,2,1,2,0,0,2,1,1,2,2,1,2,0,0,0,2,1,1,2,1,2,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0}</t>
   </si>
   <si>
     <t>{115001, 115001, 115001, 125001, 125001}</t>
   </si>
   <si>
-    <t>{(5/4),(6/5),(7/6),(5/7),(3/7)}</t>
-  </si>
-  <si>
-    <t>(4/3)</t>
-  </si>
-  <si>
     <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,0,0,0,0,2,1,1,1,1,2,0,0,2,2,1,2,2,1,2,0,0,2,1,1,2,1,1,2,0,2,1,1,2,0,2,2,0,0,2,1,2,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
   </si>
   <si>
     <t>{125001, 125001, 115001, 115001, 122001}</t>
   </si>
   <si>
-    <t>{(6/3),(5/4),(4/5),(3/5),(5/7)}</t>
-  </si>
-  <si>
-    <t>(7/3)</t>
-  </si>
-  <si>
     <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,0,0,0,0,2,1,1,1,1,2,0,0,0,0,2,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
   </si>
   <si>
@@ -204,9 +144,6 @@
     <t>{104002}</t>
   </si>
   <si>
-    <t>{(5/7)}</t>
-  </si>
-  <si>
     <t>{(113001/133001)}</t>
   </si>
   <si>
@@ -216,9 +153,6 @@
     <t>{104001, 104003}</t>
   </si>
   <si>
-    <t>{(4/6),(6/6)}</t>
-  </si>
-  <si>
     <t>{(113001/122001),(123001,133001)}</t>
   </si>
   <si>
@@ -228,9 +162,6 @@
     <t>{104002, 104001, 104003}</t>
   </si>
   <si>
-    <t>{(4/6),(6/6),(6/4)}</t>
-  </si>
-  <si>
     <t>{(113001/113001),(113001/123001),(123001/133001)}</t>
   </si>
   <si>
@@ -240,27 +171,15 @@
     <t>{104002, 104003, 104001}</t>
   </si>
   <si>
-    <t>{(6/4),(6/7),(4/7)}</t>
-  </si>
-  <si>
     <t>{(113001/113001),(123001/133001),(113001/123001)}</t>
   </si>
   <si>
     <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,2,2,2,0,0,2,1,1,1,1,2,2,0,0,2,1,2,2,1,1,2,0,0,2,1,2,1,2,1,2,0,0,2,1,1,1,2,2,2,0,0,2,2,2,2,2,2,2,0,0,0,0,0,0,0,0,0,0}</t>
   </si>
   <si>
-    <t>{104002, 104003, 104001, 104003}</t>
-  </si>
-  <si>
-    <t>{(6/3),(4/4),(5/6),(6/7)}</t>
-  </si>
-  <si>
     <t>{(113001/113001),(123001/133001),(113001/123001),(123001,132001)}</t>
   </si>
   <si>
-    <t>(6/5)</t>
-  </si>
-  <si>
     <t>{0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,2,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0}</t>
   </si>
   <si>
@@ -270,64 +189,202 @@
     <t>{104003}</t>
   </si>
   <si>
-    <t>{(3/6)}</t>
-  </si>
-  <si>
     <t>{(123001/133001)}</t>
   </si>
   <si>
-    <t>(7/6)</t>
-  </si>
-  <si>
     <t>{0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,2,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
     <t>{104003, 115001}</t>
   </si>
   <si>
-    <t>{(3/4),(3/6)}</t>
-  </si>
-  <si>
     <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,2,2,1,2,2,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,2,2,0,0,0,0,2,1,1,1,1,2,0,0,0,0,2,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
     <t>{123001, 123001, 104001}</t>
   </si>
   <si>
-    <t>{(5/5),(7/3),(7/6)}</t>
-  </si>
-  <si>
     <t>{(113001/123001)}</t>
   </si>
   <si>
-    <t>(3/7)</t>
-  </si>
-  <si>
     <t>{0,0,0,0,0,0,2,2,0,0,0,0,0,0,2,1,1,2,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,0,0,0,2,2,2,2,1,2,0,0,2,1,1,1,1,1,2,0,0,0,2,2,2,2,2,0,0,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
     <t>{135001, 135001, 104001}</t>
   </si>
   <si>
-    <t>{(7/7),(7/5),(7/3)}</t>
-  </si>
-  <si>
-    <t>(2/8)</t>
-  </si>
-  <si>
     <t>{0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,1,2,0,0,0,2,1,1,2,1,2,0,0,2,1,1,2,1,1,2,0,2,1,1,2,1,1,2,0,2,1,1,2,0,2,2,0,0,2,1,2,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0</t>
   </si>
   <si>
+    <t>{(123001/133001),(113001/113001),(113001/123001)}</t>
+  </si>
+  <si>
+    <t>{104002, 104003, 104001, 104004}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(5/4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(6/3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(5/3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(4/5),(2/3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(3/3),(4/4),(5/5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(7/4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(5/4),(3/6),(1/6)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(4/4),(6/6),(5/7)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(3/4),(4/5),(5/6),(6/4),(6/2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(2/5),(3/4),(4/3),(4/2),(6/4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(6/4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(5/3),(5/5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(5/3),(5/5),(3/5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(3/5),(6/5),(6/3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(2/5),(3/3),(5/4),(6/5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(5/2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(3/2),(5/2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(4/4),(2/6),(5/6)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(1/6),(2/5),(3/4),(4/3),(5/2),(5/1),(7/4),(6/4),(5/5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(6/6),(4/6),(2/6)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{123001, 113001, 123001, 113001, 135001, 135001, 104003, 104002, 104001}</t>
-  </si>
-  <si>
-    <t>{(7/2),(6/3),(5/4),(4/5),(3/6),(2/6),(5/8),(5/7),(6/6)}</t>
-  </si>
-  <si>
-    <t>{(123001/133001),(113001/113001),(113001/123001)}</t>
-  </si>
-  <si>
-    <t>(8/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1/7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3/4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3/6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5/5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6/3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3/5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1/4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2/3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2/6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3/4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2/3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6/3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2/3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4/5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5/6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3/5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7/1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -754,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,11 +880,11 @@
         <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="5" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="J2" s="6">
         <v>1000</v>
@@ -841,23 +898,23 @@
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6">
         <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="5" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J3" s="6">
         <v>1000</v>
@@ -871,23 +928,23 @@
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E4" s="6">
         <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="5" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="J4" s="6">
         <v>1000</v>
@@ -901,23 +958,23 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5" s="6">
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="5" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="J5" s="6">
         <v>1000</v>
@@ -931,23 +988,23 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E6" s="6">
         <v>9</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="5" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="J6" s="6">
         <v>1000</v>
@@ -961,10 +1018,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E7" s="6">
         <v>2</v>
@@ -973,11 +1030,11 @@
         <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="J7" s="6">
         <v>2000</v>
@@ -991,23 +1048,23 @@
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E8" s="6">
         <v>4</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="J8" s="6">
         <v>2000</v>
@@ -1021,23 +1078,23 @@
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E9" s="6">
         <v>5</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="J9" s="6">
         <v>2000</v>
@@ -1051,23 +1108,23 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E10" s="6">
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="5" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="J10" s="6">
         <v>2000</v>
@@ -1081,23 +1138,23 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E11" s="6">
         <v>11</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="5" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="J11" s="6">
         <v>2000</v>
@@ -1111,25 +1168,25 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E12" s="6">
         <v>4</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="J12" s="6">
         <v>3000</v>
@@ -1143,25 +1200,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E13" s="6">
         <v>7</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="J13" s="6">
         <v>3000</v>
@@ -1175,25 +1232,25 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E14" s="6">
         <v>8</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="J14" s="6">
         <v>3000</v>
@@ -1207,25 +1264,25 @@
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E15" s="6">
         <v>11</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="J15" s="6">
         <v>3000</v>
@@ -1239,25 +1296,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E16" s="6">
         <v>16</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="J16" s="6">
         <v>3000</v>
@@ -1271,25 +1328,25 @@
         <v>10</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E17" s="6">
         <v>6</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="J17" s="6">
         <v>4000</v>
@@ -1303,25 +1360,25 @@
         <v>10</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E18" s="6">
         <v>7</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="J18" s="6">
         <v>4000</v>
@@ -1335,25 +1392,25 @@
         <v>10</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E19" s="6">
         <v>5</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="J19" s="6">
         <v>4000</v>
@@ -1367,25 +1424,25 @@
         <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E20" s="6">
         <v>4</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="J20" s="6">
         <v>4000</v>
@@ -1399,25 +1456,25 @@
         <v>10</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E21" s="6">
         <v>11</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J21" s="6">
         <v>4000</v>
@@ -1426,5 +1483,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/PSW/Excel/StageMap.xlsx
+++ b/Assets/PSW/Excel/StageMap.xlsx
@@ -54,336 +54,354 @@
     <t>(9/9)</t>
   </si>
   <si>
+    <t>{001,002,003,004,005}</t>
+  </si>
+  <si>
+    <t>{133001}</t>
+  </si>
+  <si>
+    <t>{001,002,003,004,007}</t>
+  </si>
+  <si>
+    <t>{123001}</t>
+  </si>
+  <si>
+    <t>{001,002,003,004,006}</t>
+  </si>
+  <si>
+    <t>{113001}</t>
+  </si>
+  <si>
+    <t>{001,002,003,004,006,007}</t>
+  </si>
+  <si>
+    <t>{123001, 133001}</t>
+  </si>
+  <si>
+    <t>{001,002,003,004,005,006,007}</t>
+  </si>
+  <si>
+    <t>{123001, 133001, 112001}</t>
+  </si>
+  <si>
+    <t>{001,002,003,004,005,100}</t>
+  </si>
+  <si>
+    <t>{001,002,003,004,005,006,100}</t>
+  </si>
+  <si>
+    <t>{133001, 133001, 113001}</t>
+  </si>
+  <si>
+    <t>{001,002,003,004,006,007,100}</t>
+  </si>
+  <si>
+    <t>{113001, 113001, 125001}</t>
+  </si>
+  <si>
+    <t>{115001, 115001, 115001, 125001, 125001}</t>
+  </si>
+  <si>
+    <t>{125001, 125001, 115001, 115001, 122001}</t>
+  </si>
+  <si>
+    <t>{001,002,003,004,005,006,007,101}</t>
+  </si>
+  <si>
+    <t>{104002}</t>
+  </si>
+  <si>
+    <t>{(113001/133001)}</t>
+  </si>
+  <si>
+    <t>{104001, 104003}</t>
+  </si>
+  <si>
+    <t>{(113001/122001),(123001,133001)}</t>
+  </si>
+  <si>
+    <t>{104002, 104001, 104003}</t>
+  </si>
+  <si>
+    <t>{(113001/113001),(113001/123001),(123001/133001)}</t>
+  </si>
+  <si>
+    <t>{104002, 104003, 104001}</t>
+  </si>
+  <si>
+    <t>{(113001/113001),(123001/133001),(113001/123001)}</t>
+  </si>
+  <si>
+    <t>{(113001/113001),(123001/133001),(113001/123001),(123001,132001)}</t>
+  </si>
+  <si>
+    <t>{001,002,003,004,005,006,007,100,101}</t>
+  </si>
+  <si>
+    <t>{104003}</t>
+  </si>
+  <si>
+    <t>{(123001/133001)}</t>
+  </si>
+  <si>
+    <t>{104003, 115001}</t>
+  </si>
+  <si>
+    <t>{123001, 123001, 104001}</t>
+  </si>
+  <si>
+    <t>{(113001/123001)}</t>
+  </si>
+  <si>
+    <t>{135001, 135001, 104001}</t>
+  </si>
+  <si>
+    <t>{(123001/133001),(113001/113001),(113001/123001)}</t>
+  </si>
+  <si>
+    <t>{104002, 104003, 104001, 104004}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(5/4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(7/4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{123001, 113001, 123001, 113001, 135001, 135001, 104003, 104002, 104001}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3/4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
-  </si>
-  <si>
-    <t>{001,002,003,004,005}</t>
-  </si>
-  <si>
-    <t>{133001}</t>
-  </si>
-  <si>
-    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,0,0,0,0,2,1,1,1,1,2,0,0,0,2,1,2,2,2,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
-  </si>
-  <si>
-    <t>{001,002,003,004,007}</t>
-  </si>
-  <si>
-    <t>{123001}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,2,2,0,0,0,0,2,1,1,1,1,2,0,0,0,0,2,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
-  </si>
-  <si>
-    <t>{001,002,003,004,006}</t>
-  </si>
-  <si>
-    <t>{113001}</t>
-  </si>
-  <si>
-    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,0,2,2,0,0,0,2,1,1,2,1,1,2,0,0,0,2,1,2,1,2,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
-  </si>
-  <si>
-    <t>{001,002,003,004,006,007}</t>
-  </si>
-  <si>
-    <t>{123001, 133001}</t>
-  </si>
-  <si>
-    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,0,0,0,0,0,0,2,1,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,1,2,0,0,0,0,0,2,0,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
-  </si>
-  <si>
-    <t>{001,002,003,004,005,006,007}</t>
-  </si>
-  <si>
-    <t>{123001, 133001, 112001}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,1,2,0,0,0,2,1,1,2,1,1,2,0,0,0,2,2,0,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,0,2,0,0,0,0,0,2,1,2,1,2,0,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,2,0,0,0,0,0,0,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(6/5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5/3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(5/5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6/5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(4/3),(2/5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(3/5),(4/4),(5/3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3/3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,2,2,2,0,2,1,1,1,1,1,1,1,2,0,2,2,2,2,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
-  </si>
-  <si>
-    <t>{001,002,003,004,005,100}</t>
-  </si>
-  <si>
-    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,2,2,1,2,2,0,0,0,2,1,1,1,2,0,0,0,2,2,1,2,2,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
-  </si>
-  <si>
-    <t>{001,002,003,004,005,006,100}</t>
-  </si>
-  <si>
-    <t>{133001, 133001, 113001}</t>
-  </si>
-  <si>
-    <t>{0,0,0,0,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0,2,1,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,1,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,1,2,0,0,0,0,0,2,1,1,2,00,0,0,0,0,2,2,0,0}</t>
-  </si>
-  <si>
-    <t>{001,002,003,004,006,007,100}</t>
-  </si>
-  <si>
-    <t>{113001, 113001, 125001}</t>
-  </si>
-  <si>
-    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,0,0,0,0,2,0,0,2,1,2,0,0,2,1,2,0,2,1,2,0,0,2,1,1,2,2,1,2,0,0,0,2,1,1,2,1,2,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0}</t>
-  </si>
-  <si>
-    <t>{115001, 115001, 115001, 125001, 125001}</t>
-  </si>
-  <si>
-    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,0,0,0,0,2,1,1,1,1,2,0,0,2,2,1,2,2,1,2,0,0,2,1,1,2,1,1,2,0,2,1,1,2,0,2,2,0,0,2,1,2,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
-  </si>
-  <si>
-    <t>{125001, 125001, 115001, 115001, 122001}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,1,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,1,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,2,1,1,2,1,2,0,0,2,1,1,2,2,1,2,0,0,2,1,2,0,2,1,2,0,0,0,2,0,0,2,1,2,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0,0,0,0,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,1,2,0,2,2,0,0,0,2,1,1,2,1,1,2,0,0,2,2,1,2,2,1,2,0,0,0,2,1,1,1,1,2,0,0,0,0,2,2,2,2,0,0,0,0,0,0,0,0,0,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,2,2,0,0,0,0,0,0,2,1,1,2,0,0,0,0,0,2,2,1,2,0,0,0,0,2,1,1,1,2,0,0,0,2,2,1,2,2,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,2,0,0,0,0,0,0,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1/4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7/6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(5/4),(3/2),(1/2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2/6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(4/4),(6/2),(5/1)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2/5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(3/4),(4/3),(5/2),(6/4),(6/6)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(2/3),(3/4),(4/5),(4/6),(6/4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,0,0,0,0,2,1,1,1,1,2,0,0,0,0,2,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
-  </si>
-  <si>
-    <t>{001,002,003,004,005,006,007,101}</t>
-  </si>
-  <si>
-    <t>{104002}</t>
-  </si>
-  <si>
-    <t>{(113001/133001)}</t>
-  </si>
-  <si>
-    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,0,0,0,0,2,1,1,1,1,2,0,0,0,0,2,2,2,1,2,0,0,0,0,0,0,2,1,2,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
-  </si>
-  <si>
-    <t>{104001, 104003}</t>
-  </si>
-  <si>
-    <t>{(113001/122001),(123001,133001)}</t>
-  </si>
-  <si>
-    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,0,0,0,0,0,0,2,1,1,2,0,0,0,0,2,2,1,2,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
-  </si>
-  <si>
-    <t>{104002, 104001, 104003}</t>
-  </si>
-  <si>
-    <t>{(113001/113001),(113001/123001),(123001/133001)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3/4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(6/4)}</t>
+  </si>
+  <si>
+    <t>(2/5)</t>
+  </si>
+  <si>
+    <t>{(5/5),(5/3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0,2,1,2,0,0,0,0,2,2,2,1,2,0,0,0,2,1,1,1,1,2,0,0,0,0,2,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,1,2,0,0,0,0,0,0,2,1,1,2,0,0,0,0,0,0,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6/5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(5/5),(5/3),(3/3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,2,0,0,0,2,1,1,1,1,1,2,0,0,2,1,2,2,2,1,2,0,0,2,1,1,1,1,1,2,0,0,0,2,2,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
-  </si>
-  <si>
-    <t>{104002, 104003, 104001}</t>
-  </si>
-  <si>
-    <t>{(113001/113001),(123001/133001),(113001/123001)}</t>
-  </si>
-  <si>
-    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,2,2,2,0,0,2,1,1,1,1,2,2,0,0,2,1,2,2,1,1,2,0,0,2,1,2,1,2,1,2,0,0,2,1,1,1,2,2,2,0,0,2,2,2,2,2,2,2,0,0,0,0,0,0,0,0,0,0}</t>
-  </si>
-  <si>
-    <t>{(113001/113001),(123001/133001),(113001/123001),(123001,132001)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2/5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(3/3),(6/3),(6/5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,2,2,2,2,2,2,2,0,0,2,1,1,1,2,2,2,0,0,2,1,2,1,2,1,2,0,0,2,1,2,2,1,1,2,0,0,2,1,1,1,1,2,2,0,0,2,2,2,2,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4/3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(2/3),(3/5),(5/4),(6/3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,2,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0}</t>
-  </si>
-  <si>
-    <t>{001,002,003,004,005,006,007,100,101}</t>
-  </si>
-  <si>
-    <t>{104003}</t>
-  </si>
-  <si>
-    <t>{(123001/133001)}</t>
-  </si>
-  <si>
-    <t>{0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,2,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>{104003, 115001}</t>
-  </si>
-  <si>
-    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,2,2,1,2,2,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,2,2,0,0,0,0,2,1,1,1,1,2,0,0,0,0,2,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>{123001, 123001, 104001}</t>
-  </si>
-  <si>
-    <t>{(113001/123001)}</t>
-  </si>
-  <si>
-    <t>{0,0,0,0,0,0,2,2,0,0,0,0,0,0,2,1,1,2,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,0,0,0,2,2,2,2,1,2,0,0,2,1,1,1,1,1,2,0,0,0,2,2,2,2,2,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>{135001, 135001, 104001}</t>
-  </si>
-  <si>
-    <t>{0,0,0,0,0,2,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,2,1,2,1,2,0,0,0,2,1,1,2,1,2,0,0,2,1,1,2,1,1,2,0,2,1,1,2,1,1,2,0,2,1,1,2,0,2,2,0,0,2,1,2,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>{(123001/133001),(113001/113001),(113001/123001)}</t>
-  </si>
-  <si>
-    <t>{104002, 104003, 104001, 104004}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(5/4)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(6/3)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(5/3)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(4/5),(2/3)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(3/3),(4/4),(5/5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(7/4)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(5/4),(3/6),(1/6)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(4/4),(6/6),(5/7)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(3/4),(4/5),(5/6),(6/4),(6/2)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(2/5),(3/4),(4/3),(4/2),(6/4)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(6/4)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(5/3),(5/5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(5/3),(5/5),(3/5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(3/5),(6/5),(6/3)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(2/5),(3/3),(5/4),(6/5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(5/2)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(3/2),(5/2)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(4/4),(2/6),(5/6)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(1/6),(2/5),(3/4),(4/3),(5/2),(5/1),(7/4),(6/4),(5/5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(6/6),(4/6),(2/6)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{123001, 113001, 123001, 113001, 135001, 135001, 104003, 104002, 104001}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1/7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3/4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3/6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(5/5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(6/3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3/5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1/4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(7/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2/3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2/6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3/4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2/3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(6/3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2/3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(4/5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(5/6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3/5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(6/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(7/1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(5/6)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,0,0,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3/3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(3/6),(5/6)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,0,0,0,0,2,1,1,1,1,2,0,0,0,2,1,2,2,2,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,1,2,2,0,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0,0,0,0,0,0,0,0,0,0,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6/6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(4/4),(2/2),(5/2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,2,0,0,0,2,1,1,1,1,1,2,0,0,0,2,2,2,2,1,2,0,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,1,2,0,0,0,0,0,0,2,2,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7/7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(6/2),(4/2),(2/2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,2,0,0,0,0,0,0,0,2,1,2,0,0,0,0,0,0,2,1,1,2,0,2,2,0,0,0,2,1,1,2,1,1,2,0,0,0,2,1,1,2,1,1,2,0,0,0,2,1,1,2,1,2,0,0,0,0,2,1,2,1,2,0,0,0,0,2,1,1,1,2,0,0,0,0,0,2,2,2,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1/1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(1/2),(2/3),(3/4),(4/5),(5/6),(5/7),(7/4),(6/4),(5/3)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +409,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +436,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -506,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -528,6 +552,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -868,23 +898,23 @@
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="6">
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="5" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="J2" s="6">
         <v>1000</v>
@@ -898,23 +928,23 @@
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="6">
         <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="5" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="J3" s="6">
         <v>1000</v>
@@ -928,23 +958,23 @@
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6">
         <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="5" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="J4" s="6">
         <v>1000</v>
@@ -958,23 +988,23 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6">
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="5" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="J5" s="6">
         <v>1000</v>
@@ -988,23 +1018,23 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6" s="6">
         <v>9</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="5" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="J6" s="6">
         <v>1000</v>
@@ -1018,23 +1048,23 @@
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E7" s="6">
         <v>2</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="J7" s="6">
         <v>2000</v>
@@ -1048,23 +1078,23 @@
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E8" s="6">
         <v>4</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="J8" s="6">
         <v>2000</v>
@@ -1078,23 +1108,23 @@
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6">
         <v>5</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="J9" s="6">
         <v>2000</v>
@@ -1108,23 +1138,23 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E10" s="6">
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="5" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="J10" s="6">
         <v>2000</v>
@@ -1138,23 +1168,23 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E11" s="6">
         <v>11</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="5" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="J11" s="6">
         <v>2000</v>
@@ -1168,25 +1198,25 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E12" s="6">
         <v>4</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="J12" s="6">
         <v>3000</v>
@@ -1200,25 +1230,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E13" s="6">
         <v>7</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J13" s="6">
         <v>3000</v>
@@ -1232,25 +1262,25 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E14" s="6">
         <v>8</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="J14" s="6">
         <v>3000</v>
@@ -1263,26 +1293,26 @@
       <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="C15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="9">
         <v>11</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>80</v>
+      <c r="F15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J15" s="6">
         <v>3000</v>
@@ -1296,25 +1326,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E16" s="6">
         <v>16</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="J16" s="6">
         <v>3000</v>
@@ -1328,25 +1358,25 @@
         <v>10</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E17" s="6">
         <v>6</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J17" s="6">
         <v>4000</v>
@@ -1360,25 +1390,25 @@
         <v>10</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E18" s="6">
         <v>7</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J18" s="6">
         <v>4000</v>
@@ -1392,25 +1422,25 @@
         <v>10</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E19" s="6">
         <v>5</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J19" s="6">
         <v>4000</v>
@@ -1424,25 +1454,25 @@
         <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E20" s="6">
         <v>4</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J20" s="6">
         <v>4000</v>
@@ -1456,25 +1486,25 @@
         <v>10</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E21" s="6">
         <v>11</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="J21" s="6">
         <v>4000</v>
